--- a/mi_presupuesto.xlsx
+++ b/mi_presupuesto.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FlutterApps\dasho2\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B498942B-9D21-4DDC-B31D-725888C8DF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28D37D2-CC2B-4207-8100-6C9239CC41CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6855" windowWidth="16440" windowHeight="28320" xr2:uid="{659C689A-1CB2-447E-9636-51EC9D269BAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{659C689A-1CB2-447E-9636-51EC9D269BAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Presupuesto_General" sheetId="1" r:id="rId1"/>
-    <sheet name="Asignación_Materiales" sheetId="6" r:id="rId2"/>
-    <sheet name="Asignación_ManoObra" sheetId="7" r:id="rId3"/>
-    <sheet name="Catálogo_Materiales" sheetId="4" r:id="rId4"/>
-    <sheet name="Catálogo_ManoObra" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId1"/>
+    <sheet name="Presupuesto_General" sheetId="1" r:id="rId2"/>
+    <sheet name="Asignación_Materiales" sheetId="6" r:id="rId3"/>
+    <sheet name="Asignación_ManoObra" sheetId="7" r:id="rId4"/>
+    <sheet name="Catálogo_Materiales" sheetId="4" r:id="rId5"/>
+    <sheet name="Catálogo_ManoObra" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asignación_Materiales!$A$1:$F$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Asignación_Materiales!$A$1:$F$264</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="412">
   <si>
     <t>Nº</t>
   </si>
@@ -1270,6 +1271,15 @@
   </si>
   <si>
     <t>TIPO</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>Proyecto Vivienda 2</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1322,6 +1332,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1655,13 +1666,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9591BFB0-1E3C-464C-A29D-ED5451AC2BCE}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" s="6">
+        <f>+SUM(Presupuesto_General!F:F)</f>
+        <v>113514.32999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1138E28B-1E7B-4D80-96F6-AB4E82607D55}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3036,7 +3082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9B7F19-2827-4D62-83E4-378EA84BFDDE}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -8344,7 +8390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5016F48E-66C2-4663-BA2E-CEE9A36D96A0}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -10750,7 +10796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBB36F7-8CC1-4FE2-9962-B436BCD0F1F5}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -13420,7 +13466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCD58F6-36F2-4E35-A5BB-254634C77DA2}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
